--- a/Excel/Hood/2022.02.18/25.02.2022 HOOD — техничка.xlsx
+++ b/Excel/Hood/2022.02.18/25.02.2022 HOOD — техничка.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\Hood\2022.02.18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EB57718-26BC-4AFE-AE74-0FE7E1850A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{782CB79E-37CD-45F8-9B18-73F6C57E6C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4DF3818-FB00-4587-8025-CA158F5D13CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B897EB2-BCC8-4CF7-B173-73EC4B458CC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Техничка HOOD" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="237">
   <si>
     <t>Артикул на этикетке</t>
   </si>
@@ -210,9 +210,6 @@
     <t>BEL AIR TONAL INTERLOCK</t>
   </si>
   <si>
-    <t>Летний</t>
-  </si>
-  <si>
     <t>92-003-09</t>
   </si>
   <si>
@@ -312,7 +309,7 @@
     <t>LOVE PARK TONAL INTERLOCK</t>
   </si>
   <si>
-    <t>92-014-09</t>
+    <t>92-014-72</t>
   </si>
   <si>
     <t>100-MWL001-CA005-BK</t>
@@ -324,6 +321,9 @@
     <t>Black</t>
   </si>
   <si>
+    <t>черный / белый</t>
+  </si>
+  <si>
     <t>100% шерсть мериноса</t>
   </si>
   <si>
@@ -336,7 +336,7 @@
     <t>Marcy, NY</t>
   </si>
   <si>
-    <t>92-016-09</t>
+    <t>92-016-72</t>
   </si>
   <si>
     <t>100-MWL001-NY022-BK</t>
@@ -345,7 +345,7 @@
     <t>Hell's Kitchen II</t>
   </si>
   <si>
-    <t>92-017-09</t>
+    <t>92-017-72</t>
   </si>
   <si>
     <t>100-MWL001-NY076-BK</t>
@@ -354,7 +354,7 @@
     <t>Kings County</t>
   </si>
   <si>
-    <t>92-018-16</t>
+    <t>92-018-65</t>
   </si>
   <si>
     <t>100-MWL003-PA013-NY</t>
@@ -366,10 +366,10 @@
     <t>Navy</t>
   </si>
   <si>
-    <t>темно-синий</t>
-  </si>
-  <si>
-    <t>92-019-09</t>
+    <t>темно-синий / белый</t>
+  </si>
+  <si>
+    <t>92-019-72</t>
   </si>
   <si>
     <t>100-MWL005-CA069-BK</t>
@@ -387,7 +387,10 @@
     <t>Los Angeles X</t>
   </si>
   <si>
-    <t>92-021-09</t>
+    <t>черный / оранжевый</t>
+  </si>
+  <si>
+    <t>92-021-72</t>
   </si>
   <si>
     <t>100-MWL005-CA087-BK</t>
@@ -396,6 +399,9 @@
     <t>San Francisco II</t>
   </si>
   <si>
+    <t>черный / красный</t>
+  </si>
+  <si>
     <t>92-022-12</t>
   </si>
   <si>
@@ -408,7 +414,7 @@
     <t>Maroon</t>
   </si>
   <si>
-    <t>бордовый</t>
+    <t>бордовый / белый</t>
   </si>
   <si>
     <t>92-023-08</t>
@@ -423,144 +429,162 @@
     <t>Highway</t>
   </si>
   <si>
+    <t>серый / красный</t>
+  </si>
+  <si>
+    <t>92-024-72</t>
+  </si>
+  <si>
+    <t>100-MWL005-IL011-BK</t>
+  </si>
+  <si>
+    <t>Chicago IV</t>
+  </si>
+  <si>
+    <t>92-025-72</t>
+  </si>
+  <si>
+    <t>100-MWL005-IL011-BKA</t>
+  </si>
+  <si>
+    <t>Chicago VII</t>
+  </si>
+  <si>
+    <t>92-026-09</t>
+  </si>
+  <si>
+    <t>100-MWL005-MD007-BK</t>
+  </si>
+  <si>
+    <t>Baltimore</t>
+  </si>
+  <si>
+    <t>черный / фиолетовый</t>
+  </si>
+  <si>
+    <t>92-027-32</t>
+  </si>
+  <si>
+    <t>100-MWL005-MI010-NY</t>
+  </si>
+  <si>
+    <t>Detroit III</t>
+  </si>
+  <si>
+    <t>темно-синий / желтый</t>
+  </si>
+  <si>
+    <t>92-028-09</t>
+  </si>
+  <si>
+    <t>100-MWL005-NV001-BKA</t>
+  </si>
+  <si>
+    <t>Las Vegas IV</t>
+  </si>
+  <si>
+    <t>92-029-10</t>
+  </si>
+  <si>
+    <t>100-MWL005-NY020-HW</t>
+  </si>
+  <si>
+    <t>Brooklyn II</t>
+  </si>
+  <si>
+    <t>серый / черный</t>
+  </si>
+  <si>
+    <t>92-030-41</t>
+  </si>
+  <si>
+    <t>100-MWL005-NY066-AT</t>
+  </si>
+  <si>
+    <t>New York IX</t>
+  </si>
+  <si>
+    <t>Atlantic</t>
+  </si>
+  <si>
+    <t>фиолетовый / желтый</t>
+  </si>
+  <si>
+    <t>92-031-65</t>
+  </si>
+  <si>
+    <t>100-MWL005-NY066-NY</t>
+  </si>
+  <si>
+    <t>New York VII</t>
+  </si>
+  <si>
+    <t>92-032-21</t>
+  </si>
+  <si>
+    <t>100-MWL005-NY066-RL</t>
+  </si>
+  <si>
+    <t>New York III</t>
+  </si>
+  <si>
+    <t>Royal</t>
+  </si>
+  <si>
+    <t>синий / красный</t>
+  </si>
+  <si>
+    <t>92-033-26</t>
+  </si>
+  <si>
+    <t>100-MWL005-TX005-HW</t>
+  </si>
+  <si>
+    <t>Dallas III</t>
+  </si>
+  <si>
+    <t>серый / синий</t>
+  </si>
+  <si>
+    <t>92-034-41</t>
+  </si>
+  <si>
+    <t>100-MWL005-WA004-AT</t>
+  </si>
+  <si>
+    <t>Washington IV</t>
+  </si>
+  <si>
+    <t>фиолетовый / красный</t>
+  </si>
+  <si>
+    <t>92-035-09</t>
+  </si>
+  <si>
+    <t>100-MWL025-CA006-FT</t>
+  </si>
+  <si>
+    <t>VENICE TONAL 3D</t>
+  </si>
+  <si>
+    <t>FRESH TAR</t>
+  </si>
+  <si>
+    <t>92-036-08</t>
+  </si>
+  <si>
+    <t>100-MWL025-CA012-HW</t>
+  </si>
+  <si>
+    <t>COMPTON TONAL 3D</t>
+  </si>
+  <si>
+    <t>HIGHWAY</t>
+  </si>
+  <si>
     <t>серый</t>
   </si>
   <si>
-    <t>92-024-09</t>
-  </si>
-  <si>
-    <t>100-MWL005-IL011-BK</t>
-  </si>
-  <si>
-    <t>Chicago IV</t>
-  </si>
-  <si>
-    <t>92-025-09</t>
-  </si>
-  <si>
-    <t>100-MWL005-IL011-BKA</t>
-  </si>
-  <si>
-    <t>Chicago VII</t>
-  </si>
-  <si>
-    <t>92-026-09</t>
-  </si>
-  <si>
-    <t>100-MWL005-MD007-BK</t>
-  </si>
-  <si>
-    <t>Baltimore</t>
-  </si>
-  <si>
-    <t>92-027-16</t>
-  </si>
-  <si>
-    <t>100-MWL005-MI010-NY</t>
-  </si>
-  <si>
-    <t>Detroit III</t>
-  </si>
-  <si>
-    <t>92-028-09</t>
-  </si>
-  <si>
-    <t>100-MWL005-NV001-BKA</t>
-  </si>
-  <si>
-    <t>Las Vegas IV</t>
-  </si>
-  <si>
-    <t>92-029-08</t>
-  </si>
-  <si>
-    <t>100-MWL005-NY020-HW</t>
-  </si>
-  <si>
-    <t>Brooklyn II</t>
-  </si>
-  <si>
-    <t>92-030-41</t>
-  </si>
-  <si>
-    <t>100-MWL005-NY066-AT</t>
-  </si>
-  <si>
-    <t>New York IX</t>
-  </si>
-  <si>
-    <t>Atlantic</t>
-  </si>
-  <si>
-    <t>фиолетовый</t>
-  </si>
-  <si>
-    <t>92-031-16</t>
-  </si>
-  <si>
-    <t>100-MWL005-NY066-NY</t>
-  </si>
-  <si>
-    <t>New York VII</t>
-  </si>
-  <si>
-    <t>92-032-06</t>
-  </si>
-  <si>
-    <t>100-MWL005-NY066-RL</t>
-  </si>
-  <si>
-    <t>New York III</t>
-  </si>
-  <si>
-    <t>Royal</t>
-  </si>
-  <si>
-    <t>синий</t>
-  </si>
-  <si>
-    <t>92-033-08</t>
-  </si>
-  <si>
-    <t>100-MWL005-TX005-HW</t>
-  </si>
-  <si>
-    <t>Dallas III</t>
-  </si>
-  <si>
-    <t>92-034-41</t>
-  </si>
-  <si>
-    <t>100-MWL005-WA004-AT</t>
-  </si>
-  <si>
-    <t>Washington IV</t>
-  </si>
-  <si>
-    <t>92-035-09</t>
-  </si>
-  <si>
-    <t>100-MWL025-CA006-FT</t>
-  </si>
-  <si>
-    <t>VENICE TONAL 3D</t>
-  </si>
-  <si>
-    <t>FRESH TAR</t>
-  </si>
-  <si>
-    <t>92-036-08</t>
-  </si>
-  <si>
-    <t>100-MWL025-CA012-HW</t>
-  </si>
-  <si>
-    <t>COMPTON TONAL 3D</t>
-  </si>
-  <si>
-    <t>HIGHWAY</t>
-  </si>
-  <si>
     <t>92-037-09</t>
   </si>
   <si>
@@ -588,7 +612,7 @@
     <t>QUEENS TONAL 3D</t>
   </si>
   <si>
-    <t>92-040-36</t>
+    <t>92-040-73</t>
   </si>
   <si>
     <t>103-SWC001-CA001-KH</t>
@@ -600,7 +624,7 @@
     <t>Khaki</t>
   </si>
   <si>
-    <t>кремовый</t>
+    <t>кремовый / коричневый</t>
   </si>
   <si>
     <t>92-041-83</t>
@@ -612,7 +636,7 @@
     <t>Westwood Cord</t>
   </si>
   <si>
-    <t>светло-бежевый</t>
+    <t>светло-бежевый / голубой</t>
   </si>
   <si>
     <t>92-042-08</t>
@@ -627,7 +651,7 @@
     <t>Grey</t>
   </si>
   <si>
-    <t>92-043-15</t>
+    <t>92-043-83</t>
   </si>
   <si>
     <t>103-SWC001-CA008-MC</t>
@@ -639,61 +663,67 @@
     <t>Mocha</t>
   </si>
   <si>
+    <t>светло-коричневый / белый</t>
+  </si>
+  <si>
+    <t>92-044-04</t>
+  </si>
+  <si>
+    <t>103-SWC001-NY001-KH</t>
+  </si>
+  <si>
+    <t>Flatbush Cord</t>
+  </si>
+  <si>
+    <t>светло-бежевый / красный</t>
+  </si>
+  <si>
+    <t>92-045-72</t>
+  </si>
+  <si>
+    <t>103-SWC001-NY015-BK</t>
+  </si>
+  <si>
+    <t>Marcy Cord</t>
+  </si>
+  <si>
+    <t>92-046-10</t>
+  </si>
+  <si>
+    <t>103-SWC001-NY022-GY</t>
+  </si>
+  <si>
+    <t>Hell's Kitchen Cord</t>
+  </si>
+  <si>
+    <t>92-047-11</t>
+  </si>
+  <si>
+    <t>103-SWC001-NY037-BD</t>
+  </si>
+  <si>
+    <t>Queensbridge Cord</t>
+  </si>
+  <si>
+    <t>Bud</t>
+  </si>
+  <si>
+    <t>оливковый / желтый</t>
+  </si>
+  <si>
+    <t>92-048-15</t>
+  </si>
+  <si>
+    <t>103-SWC001-UT002-MC</t>
+  </si>
+  <si>
+    <t>Deer Valley Cord</t>
+  </si>
+  <si>
     <t>светло-коричневый</t>
   </si>
   <si>
-    <t>92-044-83</t>
-  </si>
-  <si>
-    <t>103-SWC001-NY001-KH</t>
-  </si>
-  <si>
-    <t>Flatbush Cord</t>
-  </si>
-  <si>
-    <t>92-045-09</t>
-  </si>
-  <si>
-    <t>103-SWC001-NY015-BK</t>
-  </si>
-  <si>
-    <t>Marcy Cord</t>
-  </si>
-  <si>
-    <t>92-046-08</t>
-  </si>
-  <si>
-    <t>103-SWC001-NY022-GY</t>
-  </si>
-  <si>
-    <t>Hell's Kitchen Cord</t>
-  </si>
-  <si>
-    <t>92-047-03</t>
-  </si>
-  <si>
-    <t>103-SWC001-NY037-BD</t>
-  </si>
-  <si>
-    <t>Queensbridge Cord</t>
-  </si>
-  <si>
-    <t>Bud</t>
-  </si>
-  <si>
-    <t>оливковый</t>
-  </si>
-  <si>
-    <t>92-048-15</t>
-  </si>
-  <si>
-    <t>103-SWC001-UT002-MC</t>
-  </si>
-  <si>
-    <t>Deer Valley Cord</t>
-  </si>
-  <si>
-    <t>92-049-09</t>
+    <t>92-049-72</t>
   </si>
   <si>
     <t>103-SWC002-NY020-BK</t>
@@ -702,7 +732,7 @@
     <t>Brooklyn Cord</t>
   </si>
   <si>
-    <t>92-050-14</t>
+    <t>92-050-72</t>
   </si>
   <si>
     <t>103-SWC003-CA047-ST</t>
@@ -714,7 +744,7 @@
     <t>Stout</t>
   </si>
   <si>
-    <t>коричневый</t>
+    <t>коричневый / красный</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1043,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B4AE40E-F411-44BF-8D19-DF983EB323FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28D5AAD8-E907-447E-8FF7-A8E3238163B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1063,7 +1093,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B64D9C31-A78D-4FDF-B540-6C8B1032BE1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09955B5D-2831-46FD-B003-299B999C02CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1113,7 +1143,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F257620-AD7F-441A-B0AA-A96985DD848A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62D38C92-3B17-41DA-B596-98BB7EAECD9A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1163,7 +1193,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D073C519-6A7B-4F91-A8F9-07FF6A9AFA1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{137518D2-F006-4B4E-BD30-20F3D5E2B4C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1213,7 +1243,7 @@
         <xdr:cNvPr id="6" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0885FDA-A5F0-4ABF-8028-E1296C25EA05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC2E7FFB-F061-4443-AEFD-E52542021078}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1263,7 +1293,7 @@
         <xdr:cNvPr id="7" name="Рисунок 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F75F5B6-58D6-472D-BBB4-9CC6126C6D49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9BB521-F2C6-4179-99BD-71A152C8575E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1313,7 +1343,7 @@
         <xdr:cNvPr id="8" name="Рисунок 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE36DF8B-FB21-4620-BD5F-275D8044FA2D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F18B9195-81D0-43E9-AC2B-3FA67E3F716D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1363,7 +1393,7 @@
         <xdr:cNvPr id="9" name="Рисунок 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{662F2C06-F316-480F-91C7-72F9ECE8C36B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC2B694A-0210-4CBD-A8B8-E3341F1F06F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1413,7 +1443,7 @@
         <xdr:cNvPr id="10" name="Рисунок 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA1725CE-43BB-4460-B1AF-10D12AE69026}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{009C8789-ADE2-42D3-B059-D84D53EFA8EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1463,7 +1493,7 @@
         <xdr:cNvPr id="11" name="Рисунок 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9657F06-3637-4655-BB31-9367FDB29C29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{960EAB8A-4303-4316-9337-BAC468195F5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1513,7 +1543,7 @@
         <xdr:cNvPr id="12" name="Рисунок 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEB2FF66-6AA8-4A33-9422-3CC3AB4145B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D4C5CC-4480-447B-B39A-DAE2732C60F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1563,7 +1593,7 @@
         <xdr:cNvPr id="13" name="Рисунок 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D2C41FC-1CF3-4B1E-9562-0303230AC864}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06D50767-EDD9-4B53-AA66-1310A8C9BA0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1613,7 +1643,7 @@
         <xdr:cNvPr id="14" name="Рисунок 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F23BFBDB-2C12-4E6D-BCD8-1DC46D474AF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C22AC9FF-7E7F-42C3-8EB8-82C9E502CD91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1663,7 +1693,7 @@
         <xdr:cNvPr id="15" name="Рисунок 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{341B6967-4FC2-4880-87AE-20735A5FA6A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{097FFFE1-2529-4E10-BCBE-2F593704E86F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1713,7 +1743,7 @@
         <xdr:cNvPr id="16" name="Рисунок 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13D7A377-99DC-477F-808E-0B8D6E21B144}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{861DA257-36F3-46A4-8E4E-C1B706FAA303}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1763,7 +1793,7 @@
         <xdr:cNvPr id="17" name="Рисунок 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3415BB16-31E7-4D90-87F4-CE610DFAAA99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A230A8F-14D3-463E-9835-FC5B413539FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1813,7 +1843,7 @@
         <xdr:cNvPr id="18" name="Рисунок 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6855B860-D20A-4991-9945-C0EBA4C54DEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85D1DA84-E1BC-4387-B407-E9DA1E329151}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1863,7 +1893,7 @@
         <xdr:cNvPr id="19" name="Рисунок 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E678BB1B-B1F8-420F-83C2-F0E8DB68D9A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBFC9A55-A792-4639-8008-164E9B3CBF30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1913,7 +1943,7 @@
         <xdr:cNvPr id="20" name="Рисунок 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91095523-3D65-4ECC-9CC9-2309DA2C0DF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{983F3055-5506-4F1D-A00E-1F6327E3326C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1963,7 +1993,7 @@
         <xdr:cNvPr id="21" name="Рисунок 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED174A0-DA91-433A-9042-1B6E2FE880A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DBC289F-33CD-415B-B80A-392C10F9E4DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2013,7 +2043,7 @@
         <xdr:cNvPr id="22" name="Рисунок 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C824500-9D72-4C77-9B04-83C69CA8EA3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E945C894-2AE2-4FC2-9B41-869FAD2228AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2063,7 +2093,7 @@
         <xdr:cNvPr id="23" name="Рисунок 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8D24299-504F-422E-8D08-417E2F9A66F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC44708B-A2EC-42BD-B0A1-215B5A5F8CBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2113,7 +2143,7 @@
         <xdr:cNvPr id="24" name="Рисунок 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CEAD343-8F1C-44FB-BB66-E9D21E8D662D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AE95B47-4BA1-457F-91A0-62A782D0BCF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2163,7 +2193,7 @@
         <xdr:cNvPr id="25" name="Рисунок 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{427031AF-44AA-43AF-A34C-F37AC98BBFA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69151517-24FB-4548-A9B9-0BBD06BED381}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2213,7 +2243,7 @@
         <xdr:cNvPr id="26" name="Рисунок 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11801C1E-631E-4AB2-A2C7-74E551CBF81F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7887F9B3-06A7-4238-B1FC-5887F3643D8C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2263,7 +2293,7 @@
         <xdr:cNvPr id="27" name="Рисунок 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84CF3F53-AD2A-4A63-ACD3-369A67A892E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38B55A8A-1E8E-45AD-ADD0-40C415907DD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2313,7 +2343,7 @@
         <xdr:cNvPr id="28" name="Рисунок 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BAE20B8-71F7-4747-AD2F-3E8D6FF68D61}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2258FFFD-A992-4B53-8B8F-8932EC599E5A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2363,7 +2393,7 @@
         <xdr:cNvPr id="29" name="Рисунок 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF6DA1B3-55C3-4DDB-B81A-80824A96AB5F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5492C3DE-154D-4256-AA8C-F8103A82BDF3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2413,7 +2443,7 @@
         <xdr:cNvPr id="30" name="Рисунок 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB498F97-1C3C-4A0B-9584-8CDB3D9D9DD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79AF44DF-8464-49DA-88AE-577F1F8B2B89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2463,7 +2493,7 @@
         <xdr:cNvPr id="31" name="Рисунок 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1144376-FBFF-4F27-B956-379ED547A3EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15ED18C4-BF98-4415-A3AB-67BD58C2DC08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2513,7 +2543,7 @@
         <xdr:cNvPr id="32" name="Рисунок 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0A9FDCC-7F2B-470D-8809-D5431348A5F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1654B797-A83F-4EBB-A7D6-F118603CE1EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2563,7 +2593,7 @@
         <xdr:cNvPr id="33" name="Рисунок 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E19DAE69-83F2-4A5A-8764-746816D201B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5C8BA7-455B-439A-8283-A0A2A98F08CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2613,7 +2643,7 @@
         <xdr:cNvPr id="34" name="Рисунок 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F56E232-91CC-48A7-A534-10480E9A1083}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2911013A-5C08-48EE-BE38-A87D6718FE62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2663,7 +2693,7 @@
         <xdr:cNvPr id="35" name="Рисунок 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{412839FE-CBBA-4EA1-85BF-51D96FC1461D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6D57489-9A07-4D94-8059-D73D738F217C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2713,7 +2743,7 @@
         <xdr:cNvPr id="36" name="Рисунок 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{611D606B-518D-47BC-8C72-AF57512D7797}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C080652-5C61-4415-AC10-FC561F3BB3CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2763,7 +2793,7 @@
         <xdr:cNvPr id="37" name="Рисунок 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C0445DC-F19A-45B8-89FB-4D041DB05E40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAEC5A74-58B6-4AB2-A0BE-58B8BC832270}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2813,7 +2843,7 @@
         <xdr:cNvPr id="38" name="Рисунок 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8EEC84E-7854-471D-8215-35D60AF24150}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2593085E-4F2B-47A9-A331-ABADAF975710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2863,7 +2893,7 @@
         <xdr:cNvPr id="39" name="Рисунок 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A01B3D3-5947-4704-AA4D-49164A7795D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD85674-216E-42DB-921D-477A872EE3E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2913,7 +2943,7 @@
         <xdr:cNvPr id="40" name="Рисунок 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD43BF0D-4CC4-458D-8F4B-C53BF7E08587}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B48373CB-4222-469E-91FD-353F5242A629}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2963,7 +2993,7 @@
         <xdr:cNvPr id="41" name="Рисунок 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4C073CD-1A61-4CD8-82C4-DA37F4C6DB5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94CBDEFC-30E1-490F-8E6E-211BAE596439}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3013,7 +3043,7 @@
         <xdr:cNvPr id="42" name="Рисунок 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77358BFD-DF20-4F58-9A12-989E402F225D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5F72F35-8934-45E0-870C-9641780CAEBC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3063,7 +3093,7 @@
         <xdr:cNvPr id="43" name="Рисунок 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7A815D0-D6F9-4F65-9B40-21C12E4E1B75}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF6CAE89-F687-458C-B51A-E749149527E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3113,7 +3143,7 @@
         <xdr:cNvPr id="44" name="Рисунок 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1A4711F-5AE5-4D0B-9A46-FD7FC2CD8EAC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D12BB098-A1BA-4839-B052-A69AE161577A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3163,7 +3193,7 @@
         <xdr:cNvPr id="45" name="Рисунок 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA11BF64-36FF-4154-92BC-6EDBB6646AC8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC293EAE-41FE-4C6B-80E2-0C42BEBC2072}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3213,7 +3243,7 @@
         <xdr:cNvPr id="46" name="Рисунок 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAA8B30E-91F3-431A-9DBE-0159BA5DFB03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE343FBF-49F5-426E-8B12-EEA38D49665D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3263,7 +3293,7 @@
         <xdr:cNvPr id="47" name="Рисунок 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6409E3AD-9D10-47CC-9E95-600F3E6E9542}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBAB457C-53F3-44F3-9951-758C83E601CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3313,7 +3343,7 @@
         <xdr:cNvPr id="48" name="Рисунок 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C24828D1-B87D-4194-A17D-06D8258B1516}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C93DC1D-0016-4493-8A43-59107FDD5288}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3363,7 +3393,7 @@
         <xdr:cNvPr id="49" name="Рисунок 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66255434-3057-4814-AA39-FD8BFBB5F1B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{557D55E0-B937-4E8C-A3F0-E464700712CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3413,7 +3443,7 @@
         <xdr:cNvPr id="50" name="Рисунок 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51584493-7B49-4C64-A3D1-1B81D92545B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7394D3E7-22EA-4131-B481-27BC68DD0DFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3463,7 +3493,7 @@
         <xdr:cNvPr id="51" name="Рисунок 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{013FAF7B-E439-41B7-9650-8AFD9996B1DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{966536F3-30FA-44CB-A9BD-29B1154DA275}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3794,14 +3824,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984A38BE-9D8E-491F-8AAC-6B79F880E2BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA82E27-13A7-419A-BB75-79D64F0D4B54}">
   <sheetPr codeName="Лист9">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:BD153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="BC1" sqref="BC1:BC1048576"/>
     </sheetView>
   </sheetViews>
@@ -4063,7 +4093,7 @@
         <v>44</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="16" t="s">
@@ -4134,13 +4164,13 @@
     </row>
     <row r="4" spans="1:39" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>60</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>61</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>42</v>
@@ -4152,7 +4182,7 @@
         <v>44</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="16" t="s">
@@ -4223,13 +4253,13 @@
     </row>
     <row r="5" spans="1:39" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>42</v>
@@ -4241,7 +4271,7 @@
         <v>44</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="16" t="s">
@@ -4312,13 +4342,13 @@
     </row>
     <row r="6" spans="1:39" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>67</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>42</v>
@@ -4330,7 +4360,7 @@
         <v>44</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="16" t="s">
@@ -4401,13 +4431,13 @@
     </row>
     <row r="7" spans="1:39" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>70</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>42</v>
@@ -4419,7 +4449,7 @@
         <v>44</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="16" t="s">
@@ -4490,13 +4520,13 @@
     </row>
     <row r="8" spans="1:39" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>72</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>73</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>42</v>
@@ -4508,7 +4538,7 @@
         <v>44</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="16" t="s">
@@ -4579,13 +4609,13 @@
     </row>
     <row r="9" spans="1:39" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>75</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>76</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>42</v>
@@ -4597,7 +4627,7 @@
         <v>44</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="16" t="s">
@@ -4668,13 +4698,13 @@
     </row>
     <row r="10" spans="1:39" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>78</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>79</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>42</v>
@@ -4686,7 +4716,7 @@
         <v>44</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="16" t="s">
@@ -4757,13 +4787,13 @@
     </row>
     <row r="11" spans="1:39" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>81</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>82</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>42</v>
@@ -4775,7 +4805,7 @@
         <v>44</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="16" t="s">
@@ -4846,13 +4876,13 @@
     </row>
     <row r="12" spans="1:39" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>85</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>42</v>
@@ -4864,7 +4894,7 @@
         <v>44</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="16" t="s">
@@ -4935,13 +4965,13 @@
     </row>
     <row r="13" spans="1:39" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>88</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>42</v>
@@ -4953,7 +4983,7 @@
         <v>44</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="16" t="s">
@@ -5024,13 +5054,13 @@
     </row>
     <row r="14" spans="1:39" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>90</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>91</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>42</v>
@@ -5042,7 +5072,7 @@
         <v>44</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="16" t="s">
@@ -5113,13 +5143,13 @@
     </row>
     <row r="15" spans="1:39" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="C15" s="13" t="s">
         <v>93</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>94</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>42</v>
@@ -5131,17 +5161,17 @@
         <v>44</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="16" t="s">
         <v>46</v>
       </c>
       <c r="J15" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" s="13" t="s">
         <v>95</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="L15" s="19" t="s">
         <v>96</v>
@@ -5220,14 +5250,14 @@
         <v>44</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="16" t="s">
         <v>46</v>
       </c>
       <c r="J16" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K16" s="13" t="s">
         <v>48</v>
@@ -5309,17 +5339,17 @@
         <v>44</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="16" t="s">
         <v>46</v>
       </c>
       <c r="J17" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="13" t="s">
         <v>95</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="L17" s="19" t="s">
         <v>96</v>
@@ -5398,17 +5428,17 @@
         <v>44</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="16" t="s">
         <v>46</v>
       </c>
       <c r="J18" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="13" t="s">
         <v>95</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="L18" s="19" t="s">
         <v>96</v>
@@ -5487,7 +5517,7 @@
         <v>44</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="16" t="s">
@@ -5576,17 +5606,17 @@
         <v>44</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="16" t="s">
         <v>46</v>
       </c>
       <c r="J20" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" s="13" t="s">
         <v>95</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="L20" s="19" t="s">
         <v>96</v>
@@ -5665,17 +5695,17 @@
         <v>44</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="16" t="s">
         <v>46</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="L21" s="19" t="s">
         <v>96</v>
@@ -5736,13 +5766,13 @@
     </row>
     <row r="22" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>42</v>
@@ -5754,17 +5784,17 @@
         <v>44</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="16" t="s">
         <v>46</v>
       </c>
       <c r="J22" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="L22" s="19" t="s">
         <v>96</v>
@@ -5825,13 +5855,13 @@
     </row>
     <row r="23" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>42</v>
@@ -5843,17 +5873,17 @@
         <v>44</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="16" t="s">
         <v>46</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L23" s="19" t="s">
         <v>96</v>
@@ -5914,13 +5944,13 @@
     </row>
     <row r="24" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>42</v>
@@ -5932,17 +5962,17 @@
         <v>44</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="16" t="s">
         <v>46</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L24" s="19" t="s">
         <v>96</v>
@@ -6003,13 +6033,13 @@
     </row>
     <row r="25" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>42</v>
@@ -6021,17 +6051,17 @@
         <v>44</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="16" t="s">
         <v>46</v>
       </c>
       <c r="J25" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="K25" s="13" t="s">
         <v>95</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="L25" s="19" t="s">
         <v>96</v>
@@ -6092,13 +6122,13 @@
     </row>
     <row r="26" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>42</v>
@@ -6110,17 +6140,17 @@
         <v>44</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="16" t="s">
         <v>46</v>
       </c>
       <c r="J26" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="L26" s="19" t="s">
         <v>96</v>
@@ -6181,13 +6211,13 @@
     </row>
     <row r="27" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>42</v>
@@ -6199,17 +6229,17 @@
         <v>44</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="16" t="s">
         <v>46</v>
       </c>
       <c r="J27" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="L27" s="19" t="s">
         <v>96</v>
@@ -6270,13 +6300,13 @@
     </row>
     <row r="28" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>42</v>
@@ -6288,7 +6318,7 @@
         <v>44</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="16" t="s">
@@ -6298,7 +6328,7 @@
         <v>109</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="L28" s="19" t="s">
         <v>96</v>
@@ -6359,13 +6389,13 @@
     </row>
     <row r="29" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>42</v>
@@ -6377,14 +6407,14 @@
         <v>44</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="13" t="s">
         <v>46</v>
       </c>
       <c r="J29" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K29" s="13" t="s">
         <v>48</v>
@@ -6448,13 +6478,13 @@
     </row>
     <row r="30" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>42</v>
@@ -6466,17 +6496,17 @@
         <v>44</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="13" t="s">
         <v>46</v>
       </c>
       <c r="J30" s="27" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="L30" s="19" t="s">
         <v>96</v>
@@ -6537,13 +6567,13 @@
     </row>
     <row r="31" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>42</v>
@@ -6555,17 +6585,17 @@
         <v>44</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="13" t="s">
         <v>46</v>
       </c>
       <c r="J31" s="27" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="L31" s="19" t="s">
         <v>96</v>
@@ -6626,13 +6656,13 @@
     </row>
     <row r="32" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>42</v>
@@ -6644,7 +6674,7 @@
         <v>44</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="13" t="s">
@@ -6715,13 +6745,13 @@
     </row>
     <row r="33" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>42</v>
@@ -6733,17 +6763,17 @@
         <v>44</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H33" s="12"/>
       <c r="I33" s="13" t="s">
         <v>46</v>
       </c>
       <c r="J33" s="27" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L33" s="19" t="s">
         <v>96</v>
@@ -6804,13 +6834,13 @@
     </row>
     <row r="34" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>42</v>
@@ -6822,17 +6852,17 @@
         <v>44</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="13" t="s">
         <v>46</v>
       </c>
       <c r="J34" s="27" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="L34" s="19" t="s">
         <v>96</v>
@@ -6893,13 +6923,13 @@
     </row>
     <row r="35" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>42</v>
@@ -6911,17 +6941,17 @@
         <v>44</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="13" t="s">
         <v>46</v>
       </c>
       <c r="J35" s="27" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="L35" s="19" t="s">
         <v>96</v>
@@ -6982,13 +7012,13 @@
     </row>
     <row r="36" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>42</v>
@@ -7000,14 +7030,14 @@
         <v>44</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="13" t="s">
         <v>46</v>
       </c>
       <c r="J36" s="27" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>48</v>
@@ -7071,13 +7101,13 @@
     </row>
     <row r="37" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>42</v>
@@ -7089,17 +7119,17 @@
         <v>44</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="13" t="s">
         <v>46</v>
       </c>
       <c r="J37" s="27" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="L37" s="19" t="s">
         <v>96</v>
@@ -7160,13 +7190,13 @@
     </row>
     <row r="38" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>42</v>
@@ -7178,7 +7208,7 @@
         <v>44</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="13" t="s">
@@ -7249,13 +7279,13 @@
     </row>
     <row r="39" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>42</v>
@@ -7267,7 +7297,7 @@
         <v>44</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="13" t="s">
@@ -7338,13 +7368,13 @@
     </row>
     <row r="40" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>42</v>
@@ -7356,14 +7386,14 @@
         <v>44</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="13" t="s">
         <v>46</v>
       </c>
       <c r="J40" s="27" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K40" s="14" t="s">
         <v>48</v>
@@ -7427,13 +7457,13 @@
     </row>
     <row r="41" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D41" s="13" t="s">
         <v>42</v>
@@ -7445,17 +7475,17 @@
         <v>44</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H41" s="12"/>
       <c r="I41" s="13" t="s">
         <v>46</v>
       </c>
       <c r="J41" s="27" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="L41" s="19" t="s">
         <v>49</v>
@@ -7516,13 +7546,13 @@
     </row>
     <row r="42" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>42</v>
@@ -7534,17 +7564,17 @@
         <v>44</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="13" t="s">
         <v>46</v>
       </c>
       <c r="J42" s="27" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="L42" s="19" t="s">
         <v>49</v>
@@ -7605,13 +7635,13 @@
     </row>
     <row r="43" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="D43" s="13" t="s">
         <v>42</v>
@@ -7623,17 +7653,17 @@
         <v>44</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H43" s="12"/>
       <c r="I43" s="13" t="s">
         <v>46</v>
       </c>
       <c r="J43" s="27" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="K43" s="22" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L43" s="19" t="s">
         <v>49</v>
@@ -7694,13 +7724,13 @@
     </row>
     <row r="44" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D44" s="13" t="s">
         <v>42</v>
@@ -7712,17 +7742,17 @@
         <v>44</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H44" s="12"/>
       <c r="I44" s="13" t="s">
         <v>46</v>
       </c>
       <c r="J44" s="27" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="L44" s="19" t="s">
         <v>49</v>
@@ -7783,13 +7813,13 @@
     </row>
     <row r="45" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D45" s="13" t="s">
         <v>42</v>
@@ -7801,17 +7831,17 @@
         <v>44</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H45" s="12"/>
       <c r="I45" s="13" t="s">
         <v>46</v>
       </c>
       <c r="J45" s="27" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="L45" s="19" t="s">
         <v>49</v>
@@ -7872,13 +7902,13 @@
     </row>
     <row r="46" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>42</v>
@@ -7890,17 +7920,17 @@
         <v>44</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="13" t="s">
         <v>46</v>
       </c>
       <c r="J46" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="K46" s="22" t="s">
         <v>95</v>
-      </c>
-      <c r="K46" s="22" t="s">
-        <v>48</v>
       </c>
       <c r="L46" s="19" t="s">
         <v>49</v>
@@ -7961,13 +7991,13 @@
     </row>
     <row r="47" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>42</v>
@@ -7979,17 +8009,17 @@
         <v>44</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="13" t="s">
         <v>46</v>
       </c>
       <c r="J47" s="27" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="K47" s="22" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="L47" s="19" t="s">
         <v>49</v>
@@ -8050,13 +8080,13 @@
     </row>
     <row r="48" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>42</v>
@@ -8068,17 +8098,17 @@
         <v>44</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="13" t="s">
         <v>46</v>
       </c>
       <c r="J48" s="27" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="K48" s="14" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="L48" s="19" t="s">
         <v>49</v>
@@ -8139,13 +8169,13 @@
     </row>
     <row r="49" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>42</v>
@@ -8157,17 +8187,17 @@
         <v>44</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H49" s="12"/>
       <c r="I49" s="13" t="s">
         <v>46</v>
       </c>
       <c r="J49" s="27" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="L49" s="19" t="s">
         <v>49</v>
@@ -8228,13 +8258,13 @@
     </row>
     <row r="50" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="D50" s="13" t="s">
         <v>42</v>
@@ -8246,17 +8276,17 @@
         <v>44</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="13" t="s">
         <v>46</v>
       </c>
       <c r="J50" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="K50" s="13" t="s">
         <v>95</v>
-      </c>
-      <c r="K50" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="L50" s="19" t="s">
         <v>49</v>
@@ -8317,13 +8347,13 @@
     </row>
     <row r="51" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="D51" s="13" t="s">
         <v>42</v>
@@ -8335,17 +8365,17 @@
         <v>44</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H51" s="12"/>
       <c r="I51" s="13" t="s">
         <v>46</v>
       </c>
       <c r="J51" s="27" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="L51" s="19" t="s">
         <v>49</v>

--- a/Excel/Hood/2022.02.18/25.02.2022 HOOD — техничка.xlsx
+++ b/Excel/Hood/2022.02.18/25.02.2022 HOOD — техничка.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\Hood\2022.02.18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{782CB79E-37CD-45F8-9B18-73F6C57E6C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99277F8E-80F6-4D3F-BC49-5FC24A91AB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B897EB2-BCC8-4CF7-B173-73EC4B458CC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D503BA80-60C4-4BF5-B22C-98CC006DD3F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Техничка HOOD" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
     <t>черный / красный</t>
   </si>
   <si>
-    <t>92-022-12</t>
+    <t>92-022-65</t>
   </si>
   <si>
     <t>100-MWL005-CO005-MN</t>
@@ -414,7 +414,7 @@
     <t>Maroon</t>
   </si>
   <si>
-    <t>бордовый / белый</t>
+    <t>бордовый / голубой</t>
   </si>
   <si>
     <t>92-023-08</t>
@@ -624,7 +624,7 @@
     <t>Khaki</t>
   </si>
   <si>
-    <t>кремовый / коричневый</t>
+    <t>бежевый / коричневый</t>
   </si>
   <si>
     <t>92-041-83</t>
@@ -1043,7 +1043,7 @@
         <xdr:cNvPr id="2" name="Рисунок 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28D5AAD8-E907-447E-8FF7-A8E3238163B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ADCEC43-761B-4F8F-AFD0-06D423D689CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1093,7 +1093,7 @@
         <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09955B5D-2831-46FD-B003-299B999C02CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{193722A1-383A-4943-96C2-1070C0F433FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1143,7 +1143,7 @@
         <xdr:cNvPr id="4" name="Рисунок 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62D38C92-3B17-41DA-B596-98BB7EAECD9A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29E95A06-19B5-41B6-BC71-CD7B509D46EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1193,7 +1193,7 @@
         <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{137518D2-F006-4B4E-BD30-20F3D5E2B4C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F2F0BC8-1794-4F7C-B2DE-4A2C52895CED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1243,7 +1243,7 @@
         <xdr:cNvPr id="6" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC2E7FFB-F061-4443-AEFD-E52542021078}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FDCBBE9-6B22-4042-AD5D-C69F5EF72390}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1293,7 +1293,7 @@
         <xdr:cNvPr id="7" name="Рисунок 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B9BB521-F2C6-4179-99BD-71A152C8575E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC22F3B4-7CE1-4266-8DF6-CB8AB6F37A19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1343,7 +1343,7 @@
         <xdr:cNvPr id="8" name="Рисунок 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F18B9195-81D0-43E9-AC2B-3FA67E3F716D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A29042C8-542E-4538-A11C-253A1284BF40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1393,7 +1393,7 @@
         <xdr:cNvPr id="9" name="Рисунок 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC2B694A-0210-4CBD-A8B8-E3341F1F06F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4764DE55-2B10-4409-8FBC-ECCBD6B7042A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1443,7 +1443,7 @@
         <xdr:cNvPr id="10" name="Рисунок 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{009C8789-ADE2-42D3-B059-D84D53EFA8EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D269C5E-723D-4EAA-8873-808CF2258A3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1493,7 +1493,7 @@
         <xdr:cNvPr id="11" name="Рисунок 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{960EAB8A-4303-4316-9337-BAC468195F5F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C6D4D31-F416-48D8-A43B-18C912E8C97B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1543,7 +1543,7 @@
         <xdr:cNvPr id="12" name="Рисунок 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D4C5CC-4480-447B-B39A-DAE2732C60F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08873A45-ADAA-4BD7-9180-18C624134879}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1593,7 +1593,7 @@
         <xdr:cNvPr id="13" name="Рисунок 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06D50767-EDD9-4B53-AA66-1310A8C9BA0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AFBDED1-0E4F-4FB5-90C6-C3F7CB8F5297}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1643,7 +1643,7 @@
         <xdr:cNvPr id="14" name="Рисунок 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C22AC9FF-7E7F-42C3-8EB8-82C9E502CD91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAF82C61-470D-4A82-BA3B-804EF38F2423}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1693,7 +1693,7 @@
         <xdr:cNvPr id="15" name="Рисунок 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{097FFFE1-2529-4E10-BCBE-2F593704E86F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32070505-EC6C-4864-9A8A-6B55F08D8649}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1743,7 +1743,7 @@
         <xdr:cNvPr id="16" name="Рисунок 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{861DA257-36F3-46A4-8E4E-C1B706FAA303}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D278F4D5-155B-4C90-95D3-F797401FA5E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1793,7 +1793,7 @@
         <xdr:cNvPr id="17" name="Рисунок 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A230A8F-14D3-463E-9835-FC5B413539FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8958DBBF-9805-4802-B946-7190911C1803}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1843,7 +1843,7 @@
         <xdr:cNvPr id="18" name="Рисунок 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85D1DA84-E1BC-4387-B407-E9DA1E329151}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBFA03A9-EC9E-4990-9F0A-4D5190AEFE25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1893,7 +1893,7 @@
         <xdr:cNvPr id="19" name="Рисунок 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBFC9A55-A792-4639-8008-164E9B3CBF30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16E4483A-83D3-480E-81C0-EFDA99159C2B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1943,7 +1943,7 @@
         <xdr:cNvPr id="20" name="Рисунок 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{983F3055-5506-4F1D-A00E-1F6327E3326C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C338833A-13FC-4607-8A2D-45ED38ABDACF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1993,7 +1993,7 @@
         <xdr:cNvPr id="21" name="Рисунок 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DBC289F-33CD-415B-B80A-392C10F9E4DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B181BBBE-1BCD-4F53-87DE-98E2176B5046}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2043,7 +2043,7 @@
         <xdr:cNvPr id="22" name="Рисунок 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E945C894-2AE2-4FC2-9B41-869FAD2228AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81BEB382-8AD4-4714-A298-6DECDCEF6CED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2093,7 +2093,7 @@
         <xdr:cNvPr id="23" name="Рисунок 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC44708B-A2EC-42BD-B0A1-215B5A5F8CBF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7B6F95E-DE3B-4079-B217-DDD3268AC853}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2143,7 +2143,7 @@
         <xdr:cNvPr id="24" name="Рисунок 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AE95B47-4BA1-457F-91A0-62A782D0BCF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53738653-4D4E-4EE8-AB4A-ABE151CEAD5D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2193,7 @@
         <xdr:cNvPr id="25" name="Рисунок 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69151517-24FB-4548-A9B9-0BBD06BED381}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A55956DA-2606-4078-BE04-848E858A1B4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2243,7 +2243,7 @@
         <xdr:cNvPr id="26" name="Рисунок 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7887F9B3-06A7-4238-B1FC-5887F3643D8C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE35BED-81DD-4349-A38F-90DF95556BFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2293,7 +2293,7 @@
         <xdr:cNvPr id="27" name="Рисунок 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38B55A8A-1E8E-45AD-ADD0-40C415907DD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F30EB0-7E63-4EE7-9397-031657D0B90A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2343,7 +2343,7 @@
         <xdr:cNvPr id="28" name="Рисунок 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2258FFFD-A992-4B53-8B8F-8932EC599E5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E651EE5-5C56-4E3B-9ED1-D27A948DE6E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2393,7 +2393,7 @@
         <xdr:cNvPr id="29" name="Рисунок 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5492C3DE-154D-4256-AA8C-F8103A82BDF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45D5A75B-BED5-4DFA-ABF5-29A39D7345ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2443,7 +2443,7 @@
         <xdr:cNvPr id="30" name="Рисунок 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79AF44DF-8464-49DA-88AE-577F1F8B2B89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C866795B-B0CF-400A-A605-08B5F380D624}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2493,7 +2493,7 @@
         <xdr:cNvPr id="31" name="Рисунок 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15ED18C4-BF98-4415-A3AB-67BD58C2DC08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB1863BA-B489-45F7-AE86-7685D3220DCB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2543,7 +2543,7 @@
         <xdr:cNvPr id="32" name="Рисунок 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1654B797-A83F-4EBB-A7D6-F118603CE1EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F036A1F-5D00-44A1-8BFA-17CCF7D83204}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2593,7 +2593,7 @@
         <xdr:cNvPr id="33" name="Рисунок 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5C8BA7-455B-439A-8283-A0A2A98F08CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD99587E-3819-44C1-AD0E-9782712A6679}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2643,7 +2643,7 @@
         <xdr:cNvPr id="34" name="Рисунок 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2911013A-5C08-48EE-BE38-A87D6718FE62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38C5DD04-D02F-45F4-A8F7-7EDF5CC2A015}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2693,7 +2693,7 @@
         <xdr:cNvPr id="35" name="Рисунок 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6D57489-9A07-4D94-8059-D73D738F217C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DD546B3-C5FF-4096-AA74-BBE1C3040275}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2743,7 +2743,7 @@
         <xdr:cNvPr id="36" name="Рисунок 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C080652-5C61-4415-AC10-FC561F3BB3CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F6BC124-0ADF-4B90-B57F-D9F8576CE6D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2793,7 +2793,7 @@
         <xdr:cNvPr id="37" name="Рисунок 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAEC5A74-58B6-4AB2-A0BE-58B8BC832270}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09572FA3-4322-41E8-AD7A-DFF427D0ABF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2843,7 +2843,7 @@
         <xdr:cNvPr id="38" name="Рисунок 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2593085E-4F2B-47A9-A331-ABADAF975710}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20691E11-DF47-4CBF-B2C2-AC7CA7426144}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2893,7 +2893,7 @@
         <xdr:cNvPr id="39" name="Рисунок 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD85674-216E-42DB-921D-477A872EE3E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEEAC71B-4BF5-437E-B444-5818105C9629}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2943,7 +2943,7 @@
         <xdr:cNvPr id="40" name="Рисунок 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B48373CB-4222-469E-91FD-353F5242A629}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0CFAD7F-27FE-4B62-B680-392316A46B52}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2993,7 +2993,7 @@
         <xdr:cNvPr id="41" name="Рисунок 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94CBDEFC-30E1-490F-8E6E-211BAE596439}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76A15DCC-E6BE-400D-B395-22B540B6FEBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3043,7 +3043,7 @@
         <xdr:cNvPr id="42" name="Рисунок 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5F72F35-8934-45E0-870C-9641780CAEBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0821247-D1D2-40EE-8277-EAE0DFAB0CD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3093,7 +3093,7 @@
         <xdr:cNvPr id="43" name="Рисунок 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF6CAE89-F687-458C-B51A-E749149527E9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{103151FE-7DA3-456D-BFAB-24EBBF653465}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3143,7 +3143,7 @@
         <xdr:cNvPr id="44" name="Рисунок 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D12BB098-A1BA-4839-B052-A69AE161577A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12B8E054-B9FC-454D-8D37-BB3F6AD715D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3193,7 +3193,7 @@
         <xdr:cNvPr id="45" name="Рисунок 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC293EAE-41FE-4C6B-80E2-0C42BEBC2072}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3D0E8AC-0529-478A-B1CF-730BA9BBE135}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3243,7 +3243,7 @@
         <xdr:cNvPr id="46" name="Рисунок 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE343FBF-49F5-426E-8B12-EEA38D49665D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA510986-F745-4909-8AF8-E39A757DC396}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3293,7 +3293,7 @@
         <xdr:cNvPr id="47" name="Рисунок 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBAB457C-53F3-44F3-9951-758C83E601CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7135C2A4-5DC5-4396-9C79-375650CDB2CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3343,7 +3343,7 @@
         <xdr:cNvPr id="48" name="Рисунок 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C93DC1D-0016-4493-8A43-59107FDD5288}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16FFF085-85B9-4B98-A598-A7F911AFF1A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3393,7 +3393,7 @@
         <xdr:cNvPr id="49" name="Рисунок 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{557D55E0-B937-4E8C-A3F0-E464700712CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E99E09A-C085-4674-9501-03ABF2A4C287}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3443,7 +3443,7 @@
         <xdr:cNvPr id="50" name="Рисунок 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7394D3E7-22EA-4131-B481-27BC68DD0DFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8583069-6C2A-44F8-BC56-02C7C56370E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3493,7 +3493,7 @@
         <xdr:cNvPr id="51" name="Рисунок 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{966536F3-30FA-44CB-A9BD-29B1154DA275}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12D8F433-2EFA-4642-BB37-8D32AEBB3B46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3824,14 +3824,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA82E27-13A7-419A-BB75-79D64F0D4B54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21177459-E830-4111-84C6-66DD96A878E9}">
   <sheetPr codeName="Лист9">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:BD153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="BC1" sqref="BC1:BC1048576"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Hood/2022.02.18/25.02.2022 HOOD — техничка.xlsx
+++ b/Excel/Hood/2022.02.18/25.02.2022 HOOD — техничка.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\Hood\2022.02.18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99277F8E-80F6-4D3F-BC49-5FC24A91AB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1941EC-4912-4893-99F8-803DE3490C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D503BA80-60C4-4BF5-B22C-98CC006DD3F6}"/>
   </bookViews>
@@ -159,9 +159,6 @@
     <t>100-CTW020-CA003-BK</t>
   </si>
   <si>
-    <t>BEVERLY HILLS TONAL INTERLOCK</t>
-  </si>
-  <si>
     <t>Бейсболки</t>
   </si>
   <si>
@@ -207,108 +204,72 @@
     <t>100-CTW020-CA010-BK</t>
   </si>
   <si>
-    <t>BEL AIR TONAL INTERLOCK</t>
-  </si>
-  <si>
     <t>92-003-09</t>
   </si>
   <si>
     <t>100-CTW020-CA012-BK</t>
   </si>
   <si>
-    <t>COMPTON TONAL INTERLOCK</t>
-  </si>
-  <si>
     <t>92-004-09</t>
   </si>
   <si>
     <t>100-CTW020-CA013-BK</t>
   </si>
   <si>
-    <t>SOUTH CENTRAL TONAL INTERLOCK</t>
-  </si>
-  <si>
     <t>92-005-09</t>
   </si>
   <si>
     <t>100-CTW020-CA027-BK</t>
   </si>
   <si>
-    <t>CHAVEZ RAVINE TONAL INTERLOCK</t>
-  </si>
-  <si>
     <t>92-006-09</t>
   </si>
   <si>
     <t>100-CTW020-CA030-BK</t>
   </si>
   <si>
-    <t>LONG BEACH TONAL INTERLOCK</t>
-  </si>
-  <si>
     <t>92-007-09</t>
   </si>
   <si>
     <t>100-CTW020-MI001-BK</t>
   </si>
   <si>
-    <t>8 MILE TONAL INTERLOCK</t>
-  </si>
-  <si>
     <t>92-008-09</t>
   </si>
   <si>
     <t>100-CTW020-NY003-BK</t>
   </si>
   <si>
-    <t>BED STUY TONAL INTERLOCK</t>
-  </si>
-  <si>
     <t>92-009-09</t>
   </si>
   <si>
     <t>100-CTW020-NY019-BK</t>
   </si>
   <si>
-    <t>HARLEM TONAL INTERLOCK</t>
-  </si>
-  <si>
     <t>92-010-09</t>
   </si>
   <si>
     <t>100-CTW020-NY022-BK</t>
   </si>
   <si>
-    <t>HELL'S KITCHEN TONAL INTERLOCK</t>
-  </si>
-  <si>
     <t>92-011-09</t>
   </si>
   <si>
     <t>100-CTW020-NY031-BK</t>
   </si>
   <si>
-    <t>PARK HILL TONAL INTERLOCK</t>
-  </si>
-  <si>
     <t>92-012-09</t>
   </si>
   <si>
     <t>100-CTW020-NY068-BK</t>
   </si>
   <si>
-    <t>CONEY ISLAND TONAL INTERLOCK</t>
-  </si>
-  <si>
     <t>92-013-09</t>
   </si>
   <si>
     <t>100-CTW020-PA003-BK</t>
   </si>
   <si>
-    <t>LOVE PARK TONAL INTERLOCK</t>
-  </si>
-  <si>
     <t>92-014-72</t>
   </si>
   <si>
@@ -360,9 +321,6 @@
     <t>100-MWL003-PA013-NY</t>
   </si>
   <si>
-    <t>HAPPY VALLEY Zombie Nation</t>
-  </si>
-  <si>
     <t>Navy</t>
   </si>
   <si>
@@ -564,9 +522,6 @@
     <t>100-MWL025-CA006-FT</t>
   </si>
   <si>
-    <t>VENICE TONAL 3D</t>
-  </si>
-  <si>
     <t>FRESH TAR</t>
   </si>
   <si>
@@ -576,9 +531,6 @@
     <t>100-MWL025-CA012-HW</t>
   </si>
   <si>
-    <t>COMPTON TONAL 3D</t>
-  </si>
-  <si>
     <t>HIGHWAY</t>
   </si>
   <si>
@@ -591,27 +543,18 @@
     <t>100-MWL025-CA016-BK</t>
   </si>
   <si>
-    <t>KOREATOWN TONAL 3D</t>
-  </si>
-  <si>
     <t>92-038-09</t>
   </si>
   <si>
     <t>100-MWL025-NY018-BK</t>
   </si>
   <si>
-    <t>BRONX TONAL 3D</t>
-  </si>
-  <si>
     <t>92-039-09</t>
   </si>
   <si>
     <t>100-MWL025-NY027-FT</t>
   </si>
   <si>
-    <t>QUEENS TONAL 3D</t>
-  </si>
-  <si>
     <t>92-040-73</t>
   </si>
   <si>
@@ -745,6 +688,63 @@
   </si>
   <si>
     <t>коричневый / красный</t>
+  </si>
+  <si>
+    <t>Beverly Hills Tonal Interlock</t>
+  </si>
+  <si>
+    <t>Bel Air Tonal Interlock</t>
+  </si>
+  <si>
+    <t>Compton Tonal Interlock</t>
+  </si>
+  <si>
+    <t>South Central Tonal Interlock</t>
+  </si>
+  <si>
+    <t>Chavez Ravine Tonal Interlock</t>
+  </si>
+  <si>
+    <t>Long Beach Tonal Interlock</t>
+  </si>
+  <si>
+    <t>8 Mile Tonal Interlock</t>
+  </si>
+  <si>
+    <t>Bed Stuy Tonal Interlock</t>
+  </si>
+  <si>
+    <t>Harlem Tonal Interlock</t>
+  </si>
+  <si>
+    <t>Hell'S Kitchen Tonal Interlock</t>
+  </si>
+  <si>
+    <t>Park Hill Tonal Interlock</t>
+  </si>
+  <si>
+    <t>Coney Island Tonal Interlock</t>
+  </si>
+  <si>
+    <t>Love Park Tonal Interlock</t>
+  </si>
+  <si>
+    <t>Happy Valley Zombie Nation</t>
+  </si>
+  <si>
+    <t>Venice Tonal 3D</t>
+  </si>
+  <si>
+    <t>Compton Tonal 3D</t>
+  </si>
+  <si>
+    <t>Koreatown Tonal 3D</t>
+  </si>
+  <si>
+    <t>Bronx Tonal 3D</t>
+  </si>
+  <si>
+    <t>Queens Tonal 3D</t>
   </si>
 </sst>
 </file>
@@ -3828,11 +3828,11 @@
   <sheetPr codeName="Лист9">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:BD153"/>
+  <dimension ref="A1:AM153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BC1" sqref="BC1:BC1048576"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="98.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3992,39 +3992,39 @@
         <v>40</v>
       </c>
       <c r="C2" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="K2" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>49</v>
       </c>
       <c r="M2" s="20"/>
       <c r="N2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P2" s="12">
         <v>6</v>
@@ -4046,13 +4046,13 @@
         <v>6</v>
       </c>
       <c r="AE2" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF2" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF2" s="22" t="s">
+      <c r="AG2" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG2" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH2" s="23">
         <v>0.1</v>
@@ -4075,45 +4075,45 @@
     </row>
     <row r="3" spans="1:39" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>56</v>
-      </c>
       <c r="C3" s="13" t="s">
-        <v>57</v>
+        <v>219</v>
       </c>
       <c r="D3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="K3" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="L3" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>49</v>
       </c>
       <c r="M3" s="20"/>
       <c r="N3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P3" s="12">
         <v>6</v>
@@ -4135,13 +4135,13 @@
         <v>6</v>
       </c>
       <c r="AE3" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF3" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF3" s="22" t="s">
+      <c r="AG3" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG3" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH3" s="23">
         <v>0.1</v>
@@ -4164,45 +4164,45 @@
     </row>
     <row r="4" spans="1:39" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="D4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="G4" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="K4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="L4" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>49</v>
       </c>
       <c r="M4" s="20"/>
       <c r="N4" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P4" s="12">
         <v>6</v>
@@ -4224,13 +4224,13 @@
         <v>6</v>
       </c>
       <c r="AE4" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF4" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF4" s="22" t="s">
+      <c r="AG4" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG4" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH4" s="23">
         <v>0.1</v>
@@ -4253,45 +4253,45 @@
     </row>
     <row r="5" spans="1:39" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>63</v>
+        <v>221</v>
       </c>
       <c r="D5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="G5" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="K5" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="L5" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>49</v>
       </c>
       <c r="M5" s="20"/>
       <c r="N5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P5" s="12">
         <v>6</v>
@@ -4313,13 +4313,13 @@
         <v>6</v>
       </c>
       <c r="AE5" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF5" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF5" s="22" t="s">
+      <c r="AG5" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG5" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH5" s="23">
         <v>0.1</v>
@@ -4342,45 +4342,45 @@
     </row>
     <row r="6" spans="1:39" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>66</v>
+        <v>222</v>
       </c>
       <c r="D6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="G6" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="K6" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="L6" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>49</v>
       </c>
       <c r="M6" s="20"/>
       <c r="N6" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P6" s="12">
         <v>6</v>
@@ -4402,13 +4402,13 @@
         <v>6</v>
       </c>
       <c r="AE6" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF6" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF6" s="22" t="s">
+      <c r="AG6" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG6" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH6" s="23">
         <v>0.1</v>
@@ -4431,45 +4431,45 @@
     </row>
     <row r="7" spans="1:39" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>69</v>
+        <v>223</v>
       </c>
       <c r="D7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="F7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="G7" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="K7" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="L7" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>49</v>
       </c>
       <c r="M7" s="20"/>
       <c r="N7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O7" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P7" s="12">
         <v>6</v>
@@ -4491,13 +4491,13 @@
         <v>6</v>
       </c>
       <c r="AE7" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF7" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF7" s="22" t="s">
+      <c r="AG7" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG7" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH7" s="23">
         <v>0.1</v>
@@ -4520,45 +4520,45 @@
     </row>
     <row r="8" spans="1:39" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>72</v>
+        <v>224</v>
       </c>
       <c r="D8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="G8" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="K8" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="13" t="s">
+      <c r="L8" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>49</v>
       </c>
       <c r="M8" s="20"/>
       <c r="N8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P8" s="12">
         <v>12</v>
@@ -4580,13 +4580,13 @@
         <v>12</v>
       </c>
       <c r="AE8" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF8" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF8" s="22" t="s">
+      <c r="AG8" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG8" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH8" s="23">
         <v>0.1</v>
@@ -4609,45 +4609,45 @@
     </row>
     <row r="9" spans="1:39" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c r="D9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="G9" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="K9" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="L9" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>49</v>
       </c>
       <c r="M9" s="20"/>
       <c r="N9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P9" s="12">
         <v>12</v>
@@ -4669,13 +4669,13 @@
         <v>12</v>
       </c>
       <c r="AE9" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF9" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF9" s="22" t="s">
+      <c r="AG9" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG9" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH9" s="23">
         <v>0.1</v>
@@ -4698,45 +4698,45 @@
     </row>
     <row r="10" spans="1:39" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>78</v>
+        <v>226</v>
       </c>
       <c r="D10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="F10" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="G10" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="27" t="s">
+      <c r="K10" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="L10" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>49</v>
       </c>
       <c r="M10" s="20"/>
       <c r="N10" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P10" s="12">
         <v>12</v>
@@ -4758,13 +4758,13 @@
         <v>12</v>
       </c>
       <c r="AE10" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF10" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF10" s="22" t="s">
+      <c r="AG10" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG10" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH10" s="23">
         <v>0.1</v>
@@ -4787,45 +4787,45 @@
     </row>
     <row r="11" spans="1:39" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>81</v>
+        <v>227</v>
       </c>
       <c r="D11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="F11" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="G11" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="K11" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="L11" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>49</v>
       </c>
       <c r="M11" s="20"/>
       <c r="N11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P11" s="12">
         <v>12</v>
@@ -4847,13 +4847,13 @@
         <v>12</v>
       </c>
       <c r="AE11" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF11" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF11" s="22" t="s">
+      <c r="AG11" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG11" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH11" s="23">
         <v>0.1</v>
@@ -4876,45 +4876,45 @@
     </row>
     <row r="12" spans="1:39" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>84</v>
+        <v>228</v>
       </c>
       <c r="D12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="F12" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="G12" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="27" t="s">
+      <c r="K12" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="L12" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>49</v>
       </c>
       <c r="M12" s="20"/>
       <c r="N12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P12" s="12">
         <v>12</v>
@@ -4936,13 +4936,13 @@
         <v>12</v>
       </c>
       <c r="AE12" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF12" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF12" s="22" t="s">
+      <c r="AG12" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG12" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH12" s="23">
         <v>0.1</v>
@@ -4965,45 +4965,45 @@
     </row>
     <row r="13" spans="1:39" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>87</v>
+        <v>229</v>
       </c>
       <c r="D13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="F13" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="G13" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="K13" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="L13" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>49</v>
       </c>
       <c r="M13" s="20"/>
       <c r="N13" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P13" s="12">
         <v>12</v>
@@ -5025,13 +5025,13 @@
         <v>12</v>
       </c>
       <c r="AE13" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF13" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF13" s="22" t="s">
+      <c r="AG13" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG13" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH13" s="23">
         <v>0.1</v>
@@ -5054,45 +5054,45 @@
     </row>
     <row r="14" spans="1:39" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="D14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="F14" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="G14" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="27" t="s">
+      <c r="K14" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="L14" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>49</v>
       </c>
       <c r="M14" s="20"/>
       <c r="N14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P14" s="12">
         <v>12</v>
@@ -5114,13 +5114,13 @@
         <v>12</v>
       </c>
       <c r="AE14" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF14" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF14" s="22" t="s">
+      <c r="AG14" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG14" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH14" s="23">
         <v>0.1</v>
@@ -5143,45 +5143,45 @@
     </row>
     <row r="15" spans="1:39" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="F15" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="G15" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J15" s="27" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M15" s="20"/>
       <c r="N15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P15" s="12">
         <v>3</v>
@@ -5203,13 +5203,13 @@
         <v>3</v>
       </c>
       <c r="AE15" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF15" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF15" s="22" t="s">
+      <c r="AG15" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG15" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH15" s="23">
         <v>0.1</v>
@@ -5232,45 +5232,45 @@
     </row>
     <row r="16" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D16" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="F16" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="G16" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J16" s="27" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M16" s="20"/>
       <c r="N16" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O16" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P16" s="12">
         <v>3</v>
@@ -5292,13 +5292,13 @@
         <v>3</v>
       </c>
       <c r="AE16" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF16" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF16" s="22" t="s">
+      <c r="AG16" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG16" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH16" s="23">
         <v>0.1</v>
@@ -5321,45 +5321,45 @@
     </row>
     <row r="17" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D17" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="F17" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="G17" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M17" s="20"/>
       <c r="N17" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O17" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O17" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P17" s="12">
         <v>3</v>
@@ -5381,13 +5381,13 @@
         <v>3</v>
       </c>
       <c r="AE17" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF17" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF17" s="22" t="s">
+      <c r="AG17" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG17" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH17" s="23">
         <v>0.1</v>
@@ -5410,45 +5410,45 @@
     </row>
     <row r="18" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="F18" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="G18" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M18" s="20"/>
       <c r="N18" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O18" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O18" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P18" s="12">
         <v>3</v>
@@ -5470,13 +5470,13 @@
         <v>3</v>
       </c>
       <c r="AE18" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF18" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF18" s="22" t="s">
+      <c r="AG18" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG18" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH18" s="23">
         <v>0.1</v>
@@ -5499,45 +5499,45 @@
     </row>
     <row r="19" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>108</v>
+        <v>231</v>
       </c>
       <c r="D19" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="F19" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="G19" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H19" s="12"/>
       <c r="I19" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="L19" s="19" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M19" s="20"/>
       <c r="N19" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O19" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O19" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P19" s="12">
         <v>3</v>
@@ -5559,13 +5559,13 @@
         <v>3</v>
       </c>
       <c r="AE19" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF19" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF19" s="22" t="s">
+      <c r="AG19" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG19" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH19" s="23">
         <v>0.1</v>
@@ -5588,45 +5588,45 @@
     </row>
     <row r="20" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D20" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="F20" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="G20" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H20" s="12"/>
       <c r="I20" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="L20" s="19" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M20" s="20"/>
       <c r="N20" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O20" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O20" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P20" s="12">
         <v>6</v>
@@ -5648,13 +5648,13 @@
         <v>6</v>
       </c>
       <c r="AE20" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF20" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF20" s="22" t="s">
+      <c r="AG20" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG20" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH20" s="23">
         <v>0.1</v>
@@ -5677,45 +5677,45 @@
     </row>
     <row r="21" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="F21" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="G21" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H21" s="12"/>
       <c r="I21" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="L21" s="19" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M21" s="20"/>
       <c r="N21" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O21" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O21" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P21" s="12">
         <v>3</v>
@@ -5737,13 +5737,13 @@
         <v>3</v>
       </c>
       <c r="AE21" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF21" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF21" s="22" t="s">
+      <c r="AG21" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG21" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH21" s="23">
         <v>0.1</v>
@@ -5766,45 +5766,45 @@
     </row>
     <row r="22" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D22" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="F22" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="G22" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H22" s="12"/>
       <c r="I22" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J22" s="27" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="L22" s="19" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M22" s="20"/>
       <c r="N22" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O22" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O22" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P22" s="12">
         <v>3</v>
@@ -5826,13 +5826,13 @@
         <v>3</v>
       </c>
       <c r="AE22" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF22" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF22" s="22" t="s">
+      <c r="AG22" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG22" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH22" s="23">
         <v>0.1</v>
@@ -5855,45 +5855,45 @@
     </row>
     <row r="23" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D23" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="F23" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="G23" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J23" s="27" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="L23" s="19" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M23" s="20"/>
       <c r="N23" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O23" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O23" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P23" s="12">
         <v>3</v>
@@ -5915,13 +5915,13 @@
         <v>3</v>
       </c>
       <c r="AE23" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF23" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF23" s="22" t="s">
+      <c r="AG23" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG23" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH23" s="23">
         <v>0.1</v>
@@ -5944,45 +5944,45 @@
     </row>
     <row r="24" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D24" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="F24" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="G24" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J24" s="27" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="L24" s="19" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M24" s="20"/>
       <c r="N24" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O24" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O24" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P24" s="12">
         <v>3</v>
@@ -6004,13 +6004,13 @@
         <v>3</v>
       </c>
       <c r="AE24" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF24" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF24" s="22" t="s">
+      <c r="AG24" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG24" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH24" s="23">
         <v>0.1</v>
@@ -6033,45 +6033,45 @@
     </row>
     <row r="25" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="D25" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="F25" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="G25" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H25" s="12"/>
       <c r="I25" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M25" s="20"/>
       <c r="N25" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O25" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O25" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P25" s="12">
         <v>3</v>
@@ -6093,13 +6093,13 @@
         <v>3</v>
       </c>
       <c r="AE25" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF25" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF25" s="22" t="s">
+      <c r="AG25" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG25" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH25" s="23">
         <v>0.1</v>
@@ -6122,45 +6122,45 @@
     </row>
     <row r="26" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="D26" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="F26" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="G26" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J26" s="27" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="L26" s="19" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M26" s="20"/>
       <c r="N26" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O26" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O26" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P26" s="12">
         <v>3</v>
@@ -6182,13 +6182,13 @@
         <v>3</v>
       </c>
       <c r="AE26" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF26" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF26" s="22" t="s">
+      <c r="AG26" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG26" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH26" s="23">
         <v>0.1</v>
@@ -6211,45 +6211,45 @@
     </row>
     <row r="27" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D27" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="F27" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="G27" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J27" s="27" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="L27" s="19" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M27" s="20"/>
       <c r="N27" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O27" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O27" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P27" s="12">
         <v>3</v>
@@ -6271,13 +6271,13 @@
         <v>3</v>
       </c>
       <c r="AE27" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF27" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF27" s="22" t="s">
+      <c r="AG27" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG27" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH27" s="23">
         <v>0.1</v>
@@ -6300,45 +6300,45 @@
     </row>
     <row r="28" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="D28" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="F28" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="G28" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J28" s="27" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="L28" s="19" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M28" s="20"/>
       <c r="N28" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O28" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O28" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P28" s="12">
         <v>3</v>
@@ -6360,13 +6360,13 @@
         <v>3</v>
       </c>
       <c r="AE28" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF28" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF28" s="22" t="s">
+      <c r="AG28" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG28" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH28" s="23">
         <v>0.1</v>
@@ -6389,45 +6389,45 @@
     </row>
     <row r="29" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D29" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="F29" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="G29" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J29" s="27" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L29" s="19" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M29" s="20"/>
       <c r="N29" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O29" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O29" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P29" s="12">
         <v>3</v>
@@ -6449,13 +6449,13 @@
         <v>3</v>
       </c>
       <c r="AE29" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF29" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF29" s="22" t="s">
+      <c r="AG29" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG29" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH29" s="23">
         <v>0.1</v>
@@ -6478,45 +6478,45 @@
     </row>
     <row r="30" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D30" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="F30" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="G30" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J30" s="27" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="L30" s="19" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M30" s="20"/>
       <c r="N30" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O30" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O30" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P30" s="12">
         <v>3</v>
@@ -6538,13 +6538,13 @@
         <v>3</v>
       </c>
       <c r="AE30" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF30" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF30" s="22" t="s">
+      <c r="AG30" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG30" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH30" s="23">
         <v>0.1</v>
@@ -6567,45 +6567,45 @@
     </row>
     <row r="31" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="D31" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="F31" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="G31" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J31" s="27" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="L31" s="19" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M31" s="20"/>
       <c r="N31" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O31" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O31" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P31" s="12">
         <v>6</v>
@@ -6627,13 +6627,13 @@
         <v>6</v>
       </c>
       <c r="AE31" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF31" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF31" s="22" t="s">
+      <c r="AG31" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG31" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH31" s="23">
         <v>0.1</v>
@@ -6656,45 +6656,45 @@
     </row>
     <row r="32" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D32" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="F32" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="G32" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H32" s="12"/>
       <c r="I32" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J32" s="27" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="L32" s="19" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M32" s="20"/>
       <c r="N32" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O32" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O32" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P32" s="12">
         <v>12</v>
@@ -6716,13 +6716,13 @@
         <v>12</v>
       </c>
       <c r="AE32" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF32" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF32" s="22" t="s">
+      <c r="AG32" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG32" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH32" s="23">
         <v>0.1</v>
@@ -6745,45 +6745,45 @@
     </row>
     <row r="33" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="D33" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="F33" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="G33" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H33" s="12"/>
       <c r="I33" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J33" s="27" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="L33" s="19" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M33" s="20"/>
       <c r="N33" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O33" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O33" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P33" s="12">
         <v>3</v>
@@ -6805,13 +6805,13 @@
         <v>3</v>
       </c>
       <c r="AE33" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF33" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF33" s="22" t="s">
+      <c r="AG33" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG33" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH33" s="23">
         <v>0.1</v>
@@ -6834,45 +6834,45 @@
     </row>
     <row r="34" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="D34" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="F34" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="G34" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J34" s="27" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="L34" s="19" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M34" s="20"/>
       <c r="N34" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O34" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O34" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P34" s="12">
         <v>3</v>
@@ -6894,13 +6894,13 @@
         <v>3</v>
       </c>
       <c r="AE34" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF34" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF34" s="22" t="s">
+      <c r="AG34" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG34" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH34" s="23">
         <v>0.1</v>
@@ -6923,45 +6923,45 @@
     </row>
     <row r="35" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="D35" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="F35" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="G35" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J35" s="27" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="L35" s="19" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M35" s="20"/>
       <c r="N35" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O35" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O35" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P35" s="12">
         <v>3</v>
@@ -6983,13 +6983,13 @@
         <v>3</v>
       </c>
       <c r="AE35" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF35" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF35" s="22" t="s">
+      <c r="AG35" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG35" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH35" s="23">
         <v>0.1</v>
@@ -7012,45 +7012,45 @@
     </row>
     <row r="36" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>176</v>
+        <v>232</v>
       </c>
       <c r="D36" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="F36" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="G36" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J36" s="27" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L36" s="19" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M36" s="20"/>
       <c r="N36" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O36" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O36" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P36" s="12">
         <v>27</v>
@@ -7072,13 +7072,13 @@
         <v>27</v>
       </c>
       <c r="AE36" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF36" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF36" s="22" t="s">
+      <c r="AG36" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG36" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH36" s="23">
         <v>0.1</v>
@@ -7101,45 +7101,45 @@
     </row>
     <row r="37" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>180</v>
+        <v>233</v>
       </c>
       <c r="D37" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="F37" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="G37" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J37" s="27" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="L37" s="19" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M37" s="20"/>
       <c r="N37" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O37" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O37" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P37" s="12">
         <v>15</v>
@@ -7161,13 +7161,13 @@
         <v>15</v>
       </c>
       <c r="AE37" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF37" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF37" s="22" t="s">
+      <c r="AG37" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG37" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH37" s="23">
         <v>0.1</v>
@@ -7190,45 +7190,45 @@
     </row>
     <row r="38" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="D38" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="F38" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="G38" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J38" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J38" s="27" t="s">
+      <c r="K38" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K38" s="13" t="s">
-        <v>48</v>
-      </c>
       <c r="L38" s="19" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M38" s="20"/>
       <c r="N38" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O38" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O38" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P38" s="12">
         <v>12</v>
@@ -7250,13 +7250,13 @@
         <v>12</v>
       </c>
       <c r="AE38" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF38" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF38" s="22" t="s">
+      <c r="AG38" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG38" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH38" s="23">
         <v>0.1</v>
@@ -7279,45 +7279,45 @@
     </row>
     <row r="39" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
       <c r="D39" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="F39" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F39" s="14" t="s">
+      <c r="G39" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J39" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="J39" s="27" t="s">
+      <c r="K39" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="K39" s="13" t="s">
-        <v>48</v>
-      </c>
       <c r="L39" s="19" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M39" s="20"/>
       <c r="N39" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O39" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O39" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P39" s="12">
         <v>18</v>
@@ -7339,13 +7339,13 @@
         <v>18</v>
       </c>
       <c r="AE39" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF39" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF39" s="22" t="s">
+      <c r="AG39" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG39" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH39" s="23">
         <v>0.1</v>
@@ -7368,45 +7368,45 @@
     </row>
     <row r="40" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="D40" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="F40" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F40" s="14" t="s">
+      <c r="G40" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J40" s="27" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L40" s="19" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="M40" s="20"/>
       <c r="N40" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O40" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O40" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P40" s="12">
         <v>27</v>
@@ -7428,13 +7428,13 @@
         <v>27</v>
       </c>
       <c r="AE40" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF40" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF40" s="22" t="s">
+      <c r="AG40" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG40" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH40" s="23">
         <v>0.1</v>
@@ -7457,45 +7457,45 @@
     </row>
     <row r="41" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="D41" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="F41" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="G41" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H41" s="12"/>
       <c r="I41" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J41" s="27" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="L41" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M41" s="20"/>
       <c r="N41" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O41" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O41" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P41" s="12">
         <v>15</v>
@@ -7517,13 +7517,13 @@
         <v>15</v>
       </c>
       <c r="AE41" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF41" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF41" s="22" t="s">
+      <c r="AG41" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG41" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH41" s="23">
         <v>0.1</v>
@@ -7546,45 +7546,45 @@
     </row>
     <row r="42" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="D42" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="F42" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F42" s="14" t="s">
+      <c r="G42" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J42" s="27" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="L42" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M42" s="20"/>
       <c r="N42" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O42" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O42" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P42" s="12">
         <v>15</v>
@@ -7606,13 +7606,13 @@
         <v>15</v>
       </c>
       <c r="AE42" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF42" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF42" s="22" t="s">
+      <c r="AG42" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG42" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH42" s="23">
         <v>0.1</v>
@@ -7635,45 +7635,45 @@
     </row>
     <row r="43" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="D43" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="F43" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F43" s="14" t="s">
+      <c r="G43" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H43" s="12"/>
       <c r="I43" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J43" s="27" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="K43" s="22" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="L43" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M43" s="20"/>
       <c r="N43" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O43" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O43" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P43" s="12">
         <v>18</v>
@@ -7695,13 +7695,13 @@
         <v>18</v>
       </c>
       <c r="AE43" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF43" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF43" s="22" t="s">
+      <c r="AG43" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG43" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH43" s="23">
         <v>0.1</v>
@@ -7724,45 +7724,45 @@
     </row>
     <row r="44" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="D44" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="F44" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="G44" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H44" s="12"/>
       <c r="I44" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J44" s="27" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="L44" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M44" s="20"/>
       <c r="N44" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O44" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O44" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P44" s="12">
         <v>27</v>
@@ -7784,13 +7784,13 @@
         <v>27</v>
       </c>
       <c r="AE44" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF44" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF44" s="22" t="s">
+      <c r="AG44" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG44" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH44" s="23">
         <v>0.1</v>
@@ -7813,45 +7813,45 @@
     </row>
     <row r="45" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="D45" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="F45" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="G45" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H45" s="12"/>
       <c r="I45" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J45" s="27" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="L45" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M45" s="20"/>
       <c r="N45" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O45" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O45" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P45" s="12">
         <v>15</v>
@@ -7873,13 +7873,13 @@
         <v>15</v>
       </c>
       <c r="AE45" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF45" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF45" s="22" t="s">
+      <c r="AG45" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG45" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH45" s="23">
         <v>0.1</v>
@@ -7902,45 +7902,45 @@
     </row>
     <row r="46" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="D46" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="F46" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="G46" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J46" s="27" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K46" s="22" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="L46" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M46" s="20"/>
       <c r="N46" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O46" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O46" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P46" s="12">
         <v>15</v>
@@ -7962,13 +7962,13 @@
         <v>15</v>
       </c>
       <c r="AE46" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF46" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF46" s="22" t="s">
+      <c r="AG46" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG46" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH46" s="23">
         <v>0.1</v>
@@ -7991,45 +7991,45 @@
     </row>
     <row r="47" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="D47" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="F47" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F47" s="14" t="s">
+      <c r="G47" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J47" s="27" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="K47" s="22" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="L47" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M47" s="20"/>
       <c r="N47" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O47" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O47" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P47" s="12">
         <v>15</v>
@@ -8051,13 +8051,13 @@
         <v>15</v>
       </c>
       <c r="AE47" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF47" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF47" s="22" t="s">
+      <c r="AG47" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG47" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH47" s="23">
         <v>0.1</v>
@@ -8080,45 +8080,45 @@
     </row>
     <row r="48" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="D48" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="F48" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F48" s="14" t="s">
+      <c r="G48" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J48" s="27" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="K48" s="14" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="L48" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M48" s="20"/>
       <c r="N48" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O48" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O48" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P48" s="12">
         <v>18</v>
@@ -8140,13 +8140,13 @@
         <v>18</v>
       </c>
       <c r="AE48" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF48" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF48" s="22" t="s">
+      <c r="AG48" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG48" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH48" s="23">
         <v>0.1</v>
@@ -8169,45 +8169,45 @@
     </row>
     <row r="49" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="D49" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="F49" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F49" s="14" t="s">
+      <c r="G49" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H49" s="12"/>
       <c r="I49" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J49" s="27" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="L49" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M49" s="20"/>
       <c r="N49" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O49" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O49" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P49" s="12">
         <v>15</v>
@@ -8229,13 +8229,13 @@
         <v>15</v>
       </c>
       <c r="AE49" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF49" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF49" s="22" t="s">
+      <c r="AG49" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG49" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH49" s="23">
         <v>0.1</v>
@@ -8258,45 +8258,45 @@
     </row>
     <row r="50" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="D50" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="F50" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F50" s="14" t="s">
+      <c r="G50" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J50" s="27" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="L50" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M50" s="20"/>
       <c r="N50" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O50" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O50" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P50" s="12">
         <v>18</v>
@@ -8318,13 +8318,13 @@
         <v>18</v>
       </c>
       <c r="AE50" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF50" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF50" s="22" t="s">
+      <c r="AG50" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG50" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH50" s="23">
         <v>0.1</v>
@@ -8347,45 +8347,45 @@
     </row>
     <row r="51" spans="1:39" s="28" customFormat="1" ht="98.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="D51" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E51" s="12" t="s">
+      <c r="F51" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F51" s="14" t="s">
+      <c r="G51" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="H51" s="12"/>
       <c r="I51" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J51" s="27" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="L51" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M51" s="20"/>
       <c r="N51" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O51" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="O51" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="P51" s="12">
         <v>3</v>
@@ -8407,13 +8407,13 @@
         <v>3</v>
       </c>
       <c r="AE51" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF51" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="AF51" s="22" t="s">
+      <c r="AG51" s="22" t="s">
         <v>53</v>
-      </c>
-      <c r="AG51" s="22" t="s">
-        <v>54</v>
       </c>
       <c r="AH51" s="23">
         <v>0.1</v>
